--- a/29-Industry Use Case-HumanResource-AutomaticAnswering/2_DataSet/train.xlsx
+++ b/29-Industry Use Case-HumanResource-AutomaticAnswering/2_DataSet/train.xlsx
@@ -32,9 +32,6 @@
     <t>List any two real-life applications of Natural Language Processing.</t>
   </si>
   <si>
-    <t>What is TF-IDF?</t>
-  </si>
-  <si>
     <t>What is Syntactic Analysis?</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>False positive means it was not a spam and we called it spam, false negative means it was a spam and we didn’t label it spam, Precision = (TP / TP + FP)  and Recall = (TP / (TP + FN)).Increasing precision involves decreasing FP and increasing recall means decreasing FN. We don’t want to miss important mails, hence we would decrease FP and hence care more for precision.</t>
+  </si>
+  <si>
+    <t>What is TFIDF?</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,13 +597,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,10 +732,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,10 +743,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -776,10 +776,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,10 +787,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -809,10 +809,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,10 +820,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +875,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
         <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,10 +941,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,10 +952,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
         <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +963,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
         <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,10 +985,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,10 +1018,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,10 +1040,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
